--- a/INTLINE/data/142/NAV/Labour Market Statistics.xlsx
+++ b/INTLINE/data/142/NAV/Labour Market Statistics.xlsx
@@ -14,7 +14,7 @@
     <t>Source: NAV</t>
   </si>
   <si>
-    <t>Labour market statistics. March 2022</t>
+    <t>Labour market statistics. May 2022</t>
   </si>
   <si>
     <t>2. Registered unemployed. Number of persons, time series</t>
@@ -62,7 +62,7 @@
     <t>Read chapter 5 in «Om statistikken – arbeidssøkere» on nav.no</t>
   </si>
   <si>
-    <t>January 2012 - march 2022</t>
+    <t>January 2012 - may 2022</t>
   </si>
   <si>
     <t>3. Registered unemployed. Percent of labour force, time series</t>
@@ -568,8 +568,12 @@
       <c r="D9" s="10">
         <v>58368</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="10">
+        <v>53785</v>
+      </c>
+      <c r="F9" s="10">
+        <v>47142</v>
+      </c>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
@@ -1174,8 +1178,12 @@
       <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="18">
+        <v>1.9</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1.6</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
